--- a/Data_Extracts/FinancialHighlights.xlsx
+++ b/Data_Extracts/FinancialHighlights.xlsx
@@ -383,10 +383,8 @@
       <c r="B2">
         <v>77147</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>79,591</t>
-        </is>
+      <c r="C2">
+        <v>79591</v>
       </c>
     </row>
     <row r="3">
@@ -398,10 +396,8 @@
       <c r="B3">
         <v>9431</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>8,728</t>
-        </is>
+      <c r="C3">
+        <v>8728</v>
       </c>
     </row>
     <row r="4">
@@ -413,10 +409,8 @@
       <c r="B4">
         <v>9435</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8,723</t>
-        </is>
+      <c r="C4">
+        <v>8723</v>
       </c>
     </row>
     <row r="5">
@@ -428,10 +422,8 @@
       <c r="B5">
         <v>11436</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>12,657</t>
-        </is>
+      <c r="C5">
+        <v>12657</v>
       </c>
     </row>
     <row r="6">
@@ -443,10 +435,8 @@
       <c r="B6">
         <v>10.57</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>9.51</t>
-        </is>
+      <c r="C6">
+        <v>9.51</v>
       </c>
     </row>
     <row r="7">
@@ -458,10 +448,8 @@
       <c r="B7">
         <v>10.63</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9.56</t>
-        </is>
+      <c r="C7">
+        <v>9.56</v>
       </c>
     </row>
     <row r="8">
@@ -473,10 +461,8 @@
       <c r="B8">
         <v>12.81</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>13.81</t>
-        </is>
+      <c r="C8">
+        <v>13.81</v>
       </c>
     </row>
     <row r="9">
@@ -488,10 +474,8 @@
       <c r="B9">
         <v>14770</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>15,247</t>
-        </is>
+      <c r="C9">
+        <v>15247</v>
       </c>
     </row>
     <row r="10">
@@ -503,10 +487,8 @@
       <c r="B10">
         <v>2370</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3,716</t>
-        </is>
+      <c r="C10">
+        <v>3716</v>
       </c>
     </row>
     <row r="11">
@@ -518,10 +500,8 @@
       <c r="B11">
         <v>1361</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4,443</t>
-        </is>
+      <c r="C11">
+        <v>4443</v>
       </c>
     </row>
     <row r="12">
@@ -533,10 +513,8 @@
       <c r="B12">
         <v>5707</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5,666</t>
-        </is>
+      <c r="C12">
+        <v>5666</v>
       </c>
     </row>
     <row r="13">
@@ -548,10 +526,8 @@
       <c r="B13">
         <v>6.43</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
+      <c r="C13">
+        <v>6.21</v>
       </c>
     </row>
     <row r="14">
@@ -563,10 +539,8 @@
       <c r="B14">
         <v>9009</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>12,222</t>
-        </is>
+      <c r="C14">
+        <v>12222</v>
       </c>
     </row>
     <row r="15">
@@ -575,10 +549,11 @@
           <t>Total assets</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>$123,382</t>
-        </is>
+      <c r="B15">
+        <v>152186</v>
+      </c>
+      <c r="C15">
+        <v>123382</v>
       </c>
     </row>
     <row r="16">
@@ -590,10 +565,8 @@
       <c r="B16">
         <v>718</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10,918</t>
-        </is>
+      <c r="C16">
+        <v>10918</v>
       </c>
     </row>
     <row r="17">
@@ -605,10 +578,8 @@
       <c r="B17">
         <v>62899</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>45,812</t>
-        </is>
+      <c r="C17">
+        <v>45812</v>
       </c>
     </row>
     <row r="18">
@@ -620,10 +591,8 @@
       <c r="B18">
         <v>20985</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>16,929</t>
-        </is>
+      <c r="C18">
+        <v>16929</v>
       </c>
     </row>
     <row r="19">
@@ -635,10 +604,8 @@
       <c r="B19">
         <v>887</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>892</t>
-        </is>
+      <c r="C19">
+        <v>892</v>
       </c>
     </row>
     <row r="20">
@@ -650,10 +617,8 @@
       <c r="B20">
         <v>134.04</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>113.67</t>
-        </is>
+      <c r="C20">
+        <v>113.67</v>
       </c>
     </row>
   </sheetData>
